--- a/Output/Relatorio-Erros-IT145632.xlsx
+++ b/Output/Relatorio-Erros-IT145632.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9D060C-687B-40BE-9853-CB92F92571A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF883BA3-546D-489A-AC64-6A9147EC8E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE495CFC-0B82-4989-A278-419D14B6E6E5}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-IT145632.xlsx
+++ b/Output/Relatorio-Erros-IT145632.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF883BA3-546D-489A-AC64-6A9147EC8E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF126C28-670E-4684-8217-73362CC9A0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE495CFC-0B82-4989-A278-419D14B6E6E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2E45A6B-00F1-4D49-879B-4724F092CD47}"/>
   </bookViews>
   <sheets>
     <sheet name="Erros" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>INVOICE</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Erros Encontrados</t>
-  </si>
-  <si>
-    <t>IT145632</t>
   </si>
 </sst>
 </file>
@@ -419,8 +416,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB66F682-FDA6-4ACF-A140-B28C06A85B99}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB966501-A503-4E04-BD11-C12AC3EE4019}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,45 +434,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>826833</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>296596</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>349606</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>867556</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B441581C-3353-4590-8B74-53AF6EA44756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD8A20-E9FD-4281-99E2-CDB0709DBA7B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Output/Relatorio-Erros-IT145632.xlsx
+++ b/Output/Relatorio-Erros-IT145632.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF126C28-670E-4684-8217-73362CC9A0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D9B9D9-CF57-4DF8-838C-7A424A161D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2E45A6B-00F1-4D49-879B-4724F092CD47}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-IT145632.xlsx
+++ b/Output/Relatorio-Erros-IT145632.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D9B9D9-CF57-4DF8-838C-7A424A161D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC54CCDB-F01C-4BE7-BFE5-0F46086877F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2E45A6B-00F1-4D49-879B-4724F092CD47}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-IT145632.xlsx
+++ b/Output/Relatorio-Erros-IT145632.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC54CCDB-F01C-4BE7-BFE5-0F46086877F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3779EB69-6CEB-4E70-A87F-A1487DB1FEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2E45A6B-00F1-4D49-879B-4724F092CD47}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-IT145632.xlsx
+++ b/Output/Relatorio-Erros-IT145632.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3779EB69-6CEB-4E70-A87F-A1487DB1FEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E7758C-AE0A-4E1C-BABF-FB87E9879434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2E45A6B-00F1-4D49-879B-4724F092CD47}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-IT145632.xlsx
+++ b/Output/Relatorio-Erros-IT145632.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BBB43F-1574-4E6B-B1D9-2109C5E08BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090A22BD-29B3-424F-AD2B-5AEEB3D1ACF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9C53C4E-3D63-4782-AD77-F79F747ED606}"/>
   </bookViews>
